--- a/datasets/taxes2022.xlsx
+++ b/datasets/taxes2022.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +511,9 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>7107</v>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>CP 1099</t>
@@ -519,7 +521,11 @@
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>wells fargo</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -536,8 +542,12 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>35803.4</v>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>Toyota W-2</t>
@@ -546,7 +556,63 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Wages, tips, other comp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16afe2b7-b1ee-4c6a-ad30-699637f33f6f</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01/31/2023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>tw22</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>b6818292-a689-4a17-8b0f-ea2f05de255a</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01/31/2023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>tw23</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datasets/taxes2022.xlsx
+++ b/datasets/taxes2022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>str</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>float</t>
@@ -341,31 +338,31 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -540,9 +537,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -622,7 +619,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -650,10 +647,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -909,9 +906,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1199,7 +1196,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1227,10 +1224,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1490,7 +1487,7 @@
     <col min="1" max="7" width="8.85156" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="1" customWidth="1"/>
     <col min="9" max="10" width="8.85156" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.0078" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.85156" style="1" customWidth="1"/>
     <col min="13" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -1822,7 +1819,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="8.85156" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.9766" style="12" customWidth="1"/>
+    <col min="3" max="6" width="8.85156" style="12" customWidth="1"/>
     <col min="7" max="16384" width="8.85156" style="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1951,7 +1950,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s" s="10">
         <v>5</v>
@@ -1971,7 +1970,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s" s="10">
         <v>6</v>
